--- a/pyisotopomer/00_Python_template.xlsx
+++ b/pyisotopomer/00_Python_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/Scrambling R&amp;D/pyScramble/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CD357-857D-5847-8EAD-62F12FE7E117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85761EEF-1BAC-AD45-B949-DDB67B4F5828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18140" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="10280" yWindow="500" windowWidth="18520" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -1243,6 +1243,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6410-E54E-9C39-579B1B44A44F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>d17O</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scale_decompression!$F$9:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23.653181412339649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.218968675425501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.517499686386948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scale_decompression!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.618966808462872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.430518925956932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.757033254469313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B2B0-AC44-9BB8-4143548557D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2442,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2814,8 +2929,8 @@
         <v>5.8493223399717582</v>
       </c>
       <c r="AZ3" s="63">
-        <f>AR3</f>
-        <v>24.2603773951218</v>
+        <f>AR3*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>23.28974545578863</v>
       </c>
       <c r="BA3" s="63">
         <f>AS3*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -2969,8 +3084,8 @@
         <v>-3.0281401764898201</v>
       </c>
       <c r="AZ4" s="63">
-        <f t="shared" ref="AZ4:AZ17" si="12">AR4</f>
-        <v>17.6812819742809</v>
+        <f>AR4*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.940962612526206</v>
       </c>
       <c r="BA4" s="63">
         <f>AS4*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3127,8 +3242,8 @@
         <v>0.11436444349660724</v>
       </c>
       <c r="AZ5" s="63">
-        <f t="shared" si="12"/>
-        <v>22.603672551350499</v>
+        <f>AR5*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.691036421235573</v>
       </c>
       <c r="BA5" s="63">
         <f>AS5*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3289,8 +3404,8 @@
         <v>6.5486935358171392</v>
       </c>
       <c r="AZ6" s="63">
-        <f t="shared" si="12"/>
-        <v>24.352429878149199</v>
+        <f>AR6*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>23.378575482949014</v>
       </c>
       <c r="BA6" s="63">
         <f>AS6*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3451,8 +3566,8 @@
         <v>-3.0980407234440004</v>
       </c>
       <c r="AZ7" s="63">
-        <f t="shared" si="12"/>
-        <v>17.7806714278295</v>
+        <f>AR7*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>17.036872766905748</v>
       </c>
       <c r="BA7" s="63">
         <f>AS7*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3604,8 +3719,8 @@
         <v>-1.0583684044816881</v>
       </c>
       <c r="AZ8" s="63">
-        <f t="shared" si="12"/>
-        <v>21.5940737361231</v>
+        <f>AR8*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>20.716780353085323</v>
       </c>
       <c r="BA8" s="63">
         <f>AS8*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3755,8 +3870,8 @@
         <v>5.3453366480094697</v>
       </c>
       <c r="AZ9" s="63">
-        <f t="shared" si="12"/>
-        <v>23.3079288441653</v>
+        <f>AR9*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.370639008381321</v>
       </c>
       <c r="BA9" s="63">
         <f>AS9*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -3901,8 +4016,8 @@
         <v>-8.7114097989330954</v>
       </c>
       <c r="AZ10" s="63">
-        <f t="shared" si="12"/>
-        <v>23.011923180081201</v>
+        <f>AR10*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.084995532882765</v>
       </c>
       <c r="BA10" s="63">
         <f>AS10*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4050,8 +4165,8 @@
         <v>6.0110828465534825</v>
       </c>
       <c r="AZ11" s="63">
-        <f t="shared" si="12"/>
-        <v>23.171307203657499</v>
+        <f>AR11*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.238800043935441</v>
       </c>
       <c r="BA11" s="63">
         <f>AS11*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4199,8 +4314,8 @@
         <v>-3.2670922067315917</v>
       </c>
       <c r="AZ12" s="63">
-        <f t="shared" si="12"/>
-        <v>17.047650523571001</v>
+        <f>AR12*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.329512523130131</v>
       </c>
       <c r="BA12" s="63">
         <f>AS12*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4348,8 +4463,8 @@
         <v>-5.7254975467651792E-2</v>
       </c>
       <c r="AZ13" s="63">
-        <f t="shared" si="12"/>
-        <v>22.459159738802899</v>
+        <f>AR13*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.551582528831542</v>
       </c>
       <c r="BA13" s="63">
         <f>AS13*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4496,8 +4611,8 @@
         <v>5.082977093061646</v>
       </c>
       <c r="AZ14" s="63">
-        <f t="shared" si="12"/>
-        <v>23.1234883652725</v>
+        <f>AR14*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.192655186427871</v>
       </c>
       <c r="BA14" s="63">
         <f>AS14*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4644,8 +4759,8 @@
         <v>5.8882913400989167</v>
       </c>
       <c r="AZ15" s="63">
-        <f t="shared" si="12"/>
-        <v>23.703556787671602</v>
+        <f>AR15*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>22.752417313661923</v>
       </c>
       <c r="BA15" s="63">
         <f>AS15*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4792,8 +4907,8 @@
         <v>-3.3664129485736662</v>
       </c>
       <c r="AZ16" s="63">
-        <f t="shared" si="12"/>
-        <v>17.560394819866399</v>
+        <f>AR16*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>16.824307321361651</v>
       </c>
       <c r="BA16" s="63">
         <f>AS16*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4937,8 +5052,8 @@
         <v>-6.1833491029155914</v>
       </c>
       <c r="AZ17" s="63">
-        <f t="shared" si="12"/>
-        <v>22.706668195684699</v>
+        <f>AR17*scale_decompression!F$14+scale_decompression!F$15</f>
+        <v>21.790426525475187</v>
       </c>
       <c r="BA17" s="63">
         <f>AS17*scale_decompression!G$14+scale_decompression!G$15</f>
@@ -4993,7 +5108,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ18" s="40" t="e">
-        <f t="shared" ref="AJ18:AJ24" si="13">AF18*$X$3</f>
+        <f t="shared" ref="AJ18:AJ24" si="12">AF18*$X$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK18" s="40" t="e">
@@ -5058,7 +5173,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ19" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK19" s="40" t="e">
@@ -5123,7 +5238,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ20" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK20" s="40" t="e">
@@ -5188,7 +5303,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ21" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK21" s="40" t="e">
@@ -5253,7 +5368,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ22" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK22" s="40" t="e">
@@ -5318,7 +5433,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ23" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK23" s="40" t="e">
@@ -5383,7 +5498,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="40" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="40" t="e">
@@ -5432,27 +5547,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="38" t="e">
-        <f t="shared" ref="AE25" si="14">$W$7*(20-I25)+AC25</f>
+        <f t="shared" ref="AE25" si="13">$W$7*(20-I25)+AC25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF25" s="38" t="e">
-        <f t="shared" ref="AF25" si="15">$X$7*(20-I25)+AA25</f>
+        <f t="shared" ref="AF25" si="14">$X$7*(20-I25)+AA25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="38" t="e">
-        <f t="shared" ref="AG25" si="16">$Y$7*(20-I25)+AB25</f>
+        <f t="shared" ref="AG25" si="15">$Y$7*(20-I25)+AB25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="40" t="e">
-        <f t="shared" ref="AI25" si="17">AE25*$W$3</f>
+        <f t="shared" ref="AI25" si="16">AE25*$W$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="40" t="e">
-        <f t="shared" ref="AJ25" si="18">AF25*$X$3</f>
+        <f t="shared" ref="AJ25" si="17">AF25*$X$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK25" s="40" t="e">
-        <f t="shared" ref="AK25" si="19">AG25*$Y$3</f>
+        <f t="shared" ref="AK25" si="18">AG25*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="61"/>
@@ -5489,35 +5604,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="36" t="e">
-        <f t="shared" ref="AB26:AB32" si="20">P26/T26</f>
+        <f t="shared" ref="AB26:AB32" si="19">P26/T26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="37" t="e">
-        <f t="shared" ref="AC26:AC32" si="21">Q26/U26</f>
+        <f t="shared" ref="AC26:AC32" si="20">Q26/U26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE26" s="38" t="e">
-        <f t="shared" ref="AE26:AE32" si="22">$W$7*(20-I26)+AC26</f>
+        <f t="shared" ref="AE26:AE32" si="21">$W$7*(20-I26)+AC26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF26" s="38" t="e">
-        <f t="shared" ref="AF26:AF32" si="23">$X$7*(20-I26)+AA26</f>
+        <f t="shared" ref="AF26:AF32" si="22">$X$7*(20-I26)+AA26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG26" s="38" t="e">
-        <f t="shared" ref="AG26:AG32" si="24">$Y$7*(20-I26)+AB26</f>
+        <f t="shared" ref="AG26:AG32" si="23">$Y$7*(20-I26)+AB26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI26" s="40" t="e">
-        <f t="shared" ref="AI26:AI32" si="25">AE26*$W$3</f>
+        <f t="shared" ref="AI26:AI32" si="24">AE26*$W$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="40" t="e">
-        <f t="shared" ref="AJ26:AJ32" si="26">AF26*$X$3</f>
+        <f t="shared" ref="AJ26:AJ32" si="25">AF26*$X$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK26" s="40" t="e">
-        <f t="shared" ref="AK26:AK32" si="27">AG26*$Y$3</f>
+        <f t="shared" ref="AK26:AK32" si="26">AG26*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="61"/>
@@ -5554,35 +5669,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="37" t="e">
+      <c r="AE27" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE27" s="38" t="e">
+      <c r="AF27" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF27" s="38" t="e">
+      <c r="AG27" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG27" s="38" t="e">
+      <c r="AI27" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI27" s="40" t="e">
+      <c r="AJ27" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ27" s="40" t="e">
+      <c r="AK27" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK27" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="61"/>
@@ -5619,35 +5734,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC28" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="37" t="e">
+      <c r="AE28" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28" s="38" t="e">
+      <c r="AF28" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF28" s="38" t="e">
+      <c r="AG28" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="38" t="e">
+      <c r="AI28" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI28" s="40" t="e">
+      <c r="AJ28" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ28" s="40" t="e">
+      <c r="AK28" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="61"/>
@@ -5684,35 +5799,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC29" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="37" t="e">
+      <c r="AE29" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE29" s="38" t="e">
+      <c r="AF29" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF29" s="38" t="e">
+      <c r="AG29" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG29" s="38" t="e">
+      <c r="AI29" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI29" s="40" t="e">
+      <c r="AJ29" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ29" s="40" t="e">
+      <c r="AK29" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="61"/>
@@ -5749,35 +5864,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC30" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="37" t="e">
+      <c r="AE30" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE30" s="38" t="e">
+      <c r="AF30" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF30" s="38" t="e">
+      <c r="AG30" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG30" s="38" t="e">
+      <c r="AI30" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI30" s="40" t="e">
+      <c r="AJ30" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ30" s="40" t="e">
+      <c r="AK30" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="61"/>
@@ -5814,35 +5929,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC31" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="37" t="e">
+      <c r="AE31" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE31" s="38" t="e">
+      <c r="AF31" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF31" s="38" t="e">
+      <c r="AG31" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG31" s="38" t="e">
+      <c r="AI31" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI31" s="40" t="e">
+      <c r="AJ31" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ31" s="40" t="e">
+      <c r="AK31" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK31" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="61"/>
@@ -5879,35 +5994,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="36" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC32" s="37" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="37" t="e">
+      <c r="AE32" s="38" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE32" s="38" t="e">
+      <c r="AF32" s="38" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="38" t="e">
+      <c r="AG32" s="38" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG32" s="38" t="e">
+      <c r="AI32" s="40" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI32" s="40" t="e">
+      <c r="AJ32" s="40" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ32" s="40" t="e">
+      <c r="AK32" s="40" t="e">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK32" s="40" t="e">
-        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="61"/>
@@ -5928,39 +6043,39 @@
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="AA33" s="35" t="e">
-        <f t="shared" ref="AA33:AA40" si="28">O33/S33</f>
+        <f t="shared" ref="AA33:AA40" si="27">O33/S33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="36" t="e">
-        <f t="shared" ref="AB33:AB39" si="29">P33/T33</f>
+        <f t="shared" ref="AB33:AB39" si="28">P33/T33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="37" t="e">
-        <f t="shared" ref="AC33:AC39" si="30">Q33/U33</f>
+        <f t="shared" ref="AC33:AC39" si="29">Q33/U33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE33" s="38" t="e">
-        <f t="shared" ref="AE33:AE39" si="31">$W$7*(20-I33)+AC33</f>
+        <f t="shared" ref="AE33:AE39" si="30">$W$7*(20-I33)+AC33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF33" s="38" t="e">
-        <f t="shared" ref="AF33:AF39" si="32">$X$7*(20-I33)+AA33</f>
+        <f t="shared" ref="AF33:AF39" si="31">$X$7*(20-I33)+AA33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG33" s="38" t="e">
-        <f t="shared" ref="AG33:AG39" si="33">$Y$7*(20-I33)+AB33</f>
+        <f t="shared" ref="AG33:AG39" si="32">$Y$7*(20-I33)+AB33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="40" t="e">
-        <f t="shared" ref="AI33:AI39" si="34">AE33*$W$3</f>
+        <f t="shared" ref="AI33:AI39" si="33">AE33*$W$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ33" s="40" t="e">
-        <f t="shared" ref="AJ33:AJ39" si="35">AF33*$X$3</f>
+        <f t="shared" ref="AJ33:AJ39" si="34">AF33*$X$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="40" t="e">
-        <f t="shared" ref="AK33:AK39" si="36">AG33*$Y$3</f>
+        <f t="shared" ref="AK33:AK39" si="35">AG33*$Y$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="61"/>
@@ -5981,39 +6096,39 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="AA34" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB34" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="36" t="e">
+      <c r="AC34" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="37" t="e">
+      <c r="AE34" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="38" t="e">
+      <c r="AF34" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="38" t="e">
+      <c r="AG34" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="38" t="e">
+      <c r="AI34" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI34" s="40" t="e">
+      <c r="AJ34" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ34" s="40" t="e">
+      <c r="AK34" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK34" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL34" s="61"/>
@@ -6034,39 +6149,39 @@
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="AA35" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB35" s="36" t="e">
+      <c r="AC35" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="37" t="e">
+      <c r="AE35" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE35" s="38" t="e">
+      <c r="AF35" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF35" s="38" t="e">
+      <c r="AG35" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG35" s="38" t="e">
+      <c r="AI35" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI35" s="40" t="e">
+      <c r="AJ35" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ35" s="40" t="e">
+      <c r="AK35" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK35" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL35" s="61"/>
@@ -6099,39 +6214,39 @@
       <c r="T36" s="31"/>
       <c r="U36" s="31"/>
       <c r="AA36" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB36" s="36" t="e">
+      <c r="AC36" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="37" t="e">
+      <c r="AE36" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE36" s="38" t="e">
+      <c r="AF36" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF36" s="38" t="e">
+      <c r="AG36" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG36" s="38" t="e">
+      <c r="AI36" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI36" s="40" t="e">
+      <c r="AJ36" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ36" s="40" t="e">
+      <c r="AK36" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK36" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL36" s="61"/>
@@ -6164,39 +6279,39 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
       <c r="AA37" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB37" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB37" s="36" t="e">
+      <c r="AC37" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="37" t="e">
+      <c r="AE37" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE37" s="38" t="e">
+      <c r="AF37" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF37" s="38" t="e">
+      <c r="AG37" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG37" s="38" t="e">
+      <c r="AI37" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI37" s="40" t="e">
+      <c r="AJ37" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ37" s="40" t="e">
+      <c r="AK37" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK37" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37" s="61"/>
@@ -6229,39 +6344,39 @@
       <c r="T38" s="31"/>
       <c r="U38" s="31"/>
       <c r="AA38" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB38" s="36" t="e">
+      <c r="AC38" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="37" t="e">
+      <c r="AE38" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE38" s="38" t="e">
+      <c r="AF38" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF38" s="38" t="e">
+      <c r="AG38" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG38" s="38" t="e">
+      <c r="AI38" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI38" s="40" t="e">
+      <c r="AJ38" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ38" s="40" t="e">
+      <c r="AK38" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK38" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL38" s="61"/>
@@ -6294,39 +6409,39 @@
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
       <c r="AA39" s="35" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="36" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB39" s="36" t="e">
+      <c r="AC39" s="37" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="37" t="e">
+      <c r="AE39" s="38" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE39" s="38" t="e">
+      <c r="AF39" s="38" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF39" s="38" t="e">
+      <c r="AG39" s="38" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="38" t="e">
+      <c r="AI39" s="40" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI39" s="40" t="e">
+      <c r="AJ39" s="40" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ39" s="40" t="e">
+      <c r="AK39" s="40" t="e">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK39" s="40" t="e">
-        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL39" s="61"/>
@@ -6341,7 +6456,7 @@
     </row>
     <row r="40" spans="3:46">
       <c r="AA40" s="35" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL40" s="56"/>
@@ -6364,7 +6479,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6434,7 +6549,10 @@
         <f>AVERAGE(B4:C4)</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="46">
+        <f>((G4/1000+1)^0.516-1)*1000</f>
+        <v>22.618966808462872</v>
+      </c>
       <c r="G4" s="46">
         <v>44.3</v>
       </c>
@@ -6455,7 +6573,10 @@
       <c r="E5" s="46">
         <v>-0.27605719255555561</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="46">
+        <f t="shared" ref="F5:F6" si="0">((G5/1000+1)^0.516-1)*1000</f>
+        <v>21.430518925956932</v>
+      </c>
       <c r="G5" s="46">
         <v>41.949257311111111</v>
       </c>
@@ -6476,7 +6597,10 @@
       <c r="E6" s="46">
         <v>-3.66</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="46">
+        <f t="shared" si="0"/>
+        <v>16.757033254469313</v>
+      </c>
       <c r="G6" s="46">
         <v>32.729999999999997</v>
       </c>
@@ -6602,9 +6726,12 @@
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="48">
+        <f>SLOPE(F4:F6,F9:F11)</f>
+        <v>0.96499327599826168</v>
+      </c>
       <c r="G14" s="48">
-        <f t="shared" ref="G14" si="0">SLOPE(G4:G6,G9:G11)</f>
+        <f t="shared" ref="G14" si="1">SLOPE(G4:G6,G9:G11)</f>
         <v>0.96419175756222808</v>
       </c>
     </row>
@@ -6622,9 +6749,12 @@
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="46">
+        <f>INTERCEPT(F4:F6,F9:F11)</f>
+        <v>-0.12135560368412968</v>
+      </c>
       <c r="G15" s="46">
-        <f t="shared" ref="G15" si="1">INTERCEPT(G4:G6,G9:G11)</f>
+        <f t="shared" ref="G15" si="2">INTERCEPT(G4:G6,G9:G11)</f>
         <v>-0.22057002510575074</v>
       </c>
     </row>
@@ -6642,11 +6772,11 @@
         <v>42</v>
       </c>
       <c r="B17" s="46">
-        <f t="shared" ref="B17:C19" si="2">B$15+B$14*B9</f>
+        <f t="shared" ref="B17:C19" si="3">B$15+B$14*B9</f>
         <v>15.346487892548804</v>
       </c>
       <c r="C17" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.771253291378001</v>
       </c>
       <c r="D17" s="46">
@@ -6657,7 +6787,10 @@
         <f>AVERAGE(B17:C17)</f>
         <v>5.7876173005854019</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="46">
+        <f>F$15+F$14*F9</f>
+        <v>22.703805415190697</v>
+      </c>
       <c r="G17" s="46">
         <f>G$15+G$14*G9</f>
         <v>44.467772503530497</v>
@@ -6668,11 +6801,11 @@
         <v>43</v>
       </c>
       <c r="B18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.84635930150757854</v>
       </c>
       <c r="C18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17885334387242335</v>
       </c>
       <c r="D18" s="46">
@@ -6680,10 +6813,13 @@
         <v>-1.0252126453800019</v>
       </c>
       <c r="E18" s="46">
-        <f t="shared" ref="E18:E19" si="3">AVERAGE(B18:C18)</f>
+        <f t="shared" ref="E18:E19" si="4">AVERAGE(B18:C18)</f>
         <v>-0.33375297881757759</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="46">
+        <f>F$15+F$14*F10</f>
+        <v>21.31979976771748</v>
+      </c>
       <c r="G18" s="46">
         <f>G$15+G$14*G10</f>
         <v>41.730160131465027</v>
@@ -6694,11 +6830,11 @@
         <v>44</v>
       </c>
       <c r="B19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3459060538476608</v>
       </c>
       <c r="C19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.725749081467198</v>
       </c>
       <c r="D19" s="46">
@@ -6706,10 +6842,13 @@
         <v>19.07165513531486</v>
       </c>
       <c r="E19" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1899215138097685</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="46">
+        <f>F$15+F$14*F11</f>
+        <v>16.782913805980932</v>
+      </c>
       <c r="G19" s="46">
         <f>G$15+G$14*G11</f>
         <v>32.781324676115581</v>

--- a/pyisotopomer/00_Python_template.xlsx
+++ b/pyisotopomer/00_Python_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/Spec Calibration Files/N2O_isotopocule_data_corrections/pyisotopomer/pyisotopomer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85761EEF-1BAC-AD45-B949-DDB67B4F5828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F01A39-2C97-CA47-9D84-C0BD33004D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="500" windowWidth="18520" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="18520" windowHeight="15820" activeTab="1" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -843,9 +843,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,13 +978,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.416870498714482</c:v>
+                  <c:v>15.051210008933149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5626976748263186</c:v>
+                  <c:v>-0.9565314303671858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5348370076648328</c:v>
+                  <c:v>6.1653607336575833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,13 +1093,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-2.9218372565587871</c:v>
+                  <c:v>-3.5561697630345002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2897969450214886</c:v>
+                  <c:v>0.68363131823097723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.469189824435823</c:v>
+                  <c:v>-13.0996991065127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,13 +1208,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.347982315905767</c:v>
+                  <c:v>46.348029409836023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.508700243025373</c:v>
+                  <c:v>43.508667511434091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.227522111016825</c:v>
+                  <c:v>34.227640725793755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,13 +1323,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23.653181412339649</c:v>
+                  <c:v>23.653205185354519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.218968675425501</c:v>
+                  <c:v>22.21895213830253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.517499686386948</c:v>
+                  <c:v>17.517559897319124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2615,14 +2613,14 @@
       <c r="AS1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
     </row>
     <row r="2" spans="1:55" ht="52" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2754,22 +2752,22 @@
         <v>103</v>
       </c>
       <c r="AU2" s="55"/>
-      <c r="AV2" s="69" t="s">
+      <c r="AV2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AW2" s="69" t="s">
+      <c r="AW2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="AX2" s="69" t="s">
+      <c r="AX2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="AY2" s="69" t="s">
+      <c r="AY2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="AZ2" s="69" t="s">
+      <c r="AZ2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BA2" s="70" t="s">
+      <c r="BA2" s="68" t="s">
         <v>36</v>
       </c>
       <c r="BB2" s="55"/>
@@ -2890,23 +2888,23 @@
         <f>D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="AN3" s="63">
-        <v>13.837845058209499</v>
-      </c>
-      <c r="AO3" s="63">
-        <v>-2.16465516902328</v>
-      </c>
-      <c r="AP3" s="63">
-        <v>16.002500227232701</v>
-      </c>
-      <c r="AQ3" s="63">
-        <v>5.8365949445930898</v>
-      </c>
-      <c r="AR3" s="63">
-        <v>24.2603773951218</v>
-      </c>
-      <c r="AS3" s="63">
-        <v>47.550916076763798</v>
+      <c r="AN3" s="64">
+        <v>14.470670301233101</v>
+      </c>
+      <c r="AO3" s="64">
+        <v>-2.7973453825958998</v>
+      </c>
+      <c r="AP3" s="64">
+        <v>17.268015683828999</v>
+      </c>
+      <c r="AQ3" s="64">
+        <v>5.8366624593186298</v>
+      </c>
+      <c r="AR3" s="64">
+        <v>24.260364594243601</v>
+      </c>
+      <c r="AS3" s="64">
+        <v>47.550890704756597</v>
       </c>
       <c r="AT3" s="31" t="s">
         <v>81</v>
@@ -2914,27 +2912,27 @@
       <c r="AU3" s="55"/>
       <c r="AV3" s="63">
         <f>AN3*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.759734209486618</v>
+        <v>14.755098565830519</v>
       </c>
       <c r="AW3" s="63">
         <f>AO3*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-3.0610895295431009</v>
+        <v>-3.073114245783807</v>
       </c>
       <c r="AX3" s="63">
         <f>AV3-AW3</f>
-        <v>17.82082373902972</v>
+        <v>17.828212811614325</v>
       </c>
       <c r="AY3" s="63">
         <f>AVERAGE(AV3:AW3)</f>
-        <v>5.8493223399717582</v>
+        <v>5.8409921600233563</v>
       </c>
       <c r="AZ3" s="63">
         <f>AR3*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>23.28974545578863</v>
+        <v>23.289736323575124</v>
       </c>
       <c r="BA3" s="63">
         <f>AS3*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>45.62763132064314</v>
+        <v>45.62761310353428</v>
       </c>
       <c r="BB3" s="55"/>
       <c r="BC3" s="55"/>
@@ -3046,22 +3044,22 @@
         <v>S2_ref_1</v>
       </c>
       <c r="AN4" s="64">
-        <v>5.5054466069134902</v>
+        <v>6.13555406578703</v>
       </c>
       <c r="AO4" s="64">
-        <v>-12.0924502848762</v>
+        <v>-12.722560186168201</v>
       </c>
       <c r="AP4" s="64">
-        <v>17.597896891789699</v>
+        <v>18.8581142519552</v>
       </c>
       <c r="AQ4" s="64">
-        <v>-3.2935018389813799</v>
+        <v>-3.2935030601905999</v>
       </c>
       <c r="AR4" s="64">
-        <v>17.6812819742809</v>
+        <v>17.6814351225267</v>
       </c>
       <c r="AS4" s="64">
-        <v>34.550094218463101</v>
+        <v>34.550395937069801</v>
       </c>
       <c r="AT4" s="31" t="s">
         <v>100</v>
@@ -3069,27 +3067,27 @@
       <c r="AU4" s="55"/>
       <c r="AV4" s="63">
         <f>AN4*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.3161233799249326</v>
+        <v>6.3237534317699202</v>
       </c>
       <c r="AW4" s="63">
         <f>AO4*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.372403732904573</v>
+        <v>-12.368009399954147</v>
       </c>
       <c r="AX4" s="63">
         <f t="shared" ref="AX4:AX17" si="10">AV4-AW4</f>
-        <v>18.688527112829505</v>
+        <v>18.691762831724066</v>
       </c>
       <c r="AY4" s="63">
         <f t="shared" ref="AY4:AY17" si="11">AVERAGE(AV4:AW4)</f>
-        <v>-3.0281401764898201</v>
+        <v>-3.0221279840921134</v>
       </c>
       <c r="AZ4" s="63">
         <f>AR4*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.940962612526206</v>
+        <v>16.941061257414592</v>
       </c>
       <c r="BA4" s="63">
         <f>AS4*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>33.092346043334764</v>
+        <v>33.092540315055601</v>
       </c>
       <c r="BB4" s="55"/>
       <c r="BC4" s="55"/>
@@ -3206,48 +3204,48 @@
         <v>B6_ref_1</v>
       </c>
       <c r="AN5" s="64">
-        <v>-1.5458648044796</v>
+        <v>-0.94059250953937301</v>
       </c>
       <c r="AO5" s="64">
-        <v>2.2271825789230899</v>
+        <v>1.6218818131319399</v>
       </c>
       <c r="AP5" s="64">
-        <v>-3.7730473834026799</v>
+        <v>-2.56247432267131</v>
       </c>
       <c r="AQ5" s="64">
-        <v>0.34065888722174398</v>
+        <v>0.340644651796284</v>
       </c>
       <c r="AR5" s="64">
-        <v>22.603672551350499</v>
+        <v>22.603707667668601</v>
       </c>
       <c r="AS5" s="64">
-        <v>44.269731766645201</v>
+        <v>44.269801263415197</v>
       </c>
       <c r="AT5" s="31"/>
       <c r="AU5" s="55"/>
       <c r="AV5" s="63">
         <f>AN5*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-0.82930176313097159</v>
+        <v>-0.83408724021261593</v>
       </c>
       <c r="AW5" s="63">
         <f>AO5*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>1.0580306501241861</v>
+        <v>1.0654615190413772</v>
       </c>
       <c r="AX5" s="63">
         <f t="shared" si="10"/>
-        <v>-1.8873324132551577</v>
+        <v>-1.8995487592539932</v>
       </c>
       <c r="AY5" s="63">
         <f t="shared" si="11"/>
-        <v>0.11436444349660724</v>
+        <v>0.11568713941438064</v>
       </c>
       <c r="AZ5" s="63">
         <f>AR5*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.691036421235573</v>
+        <v>21.69106034321322</v>
       </c>
       <c r="BA5" s="63">
         <f>AS5*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.463940453784289</v>
+        <v>42.463987740986525</v>
       </c>
       <c r="BB5" s="55"/>
       <c r="BC5" s="55"/>
@@ -3367,49 +3365,49 @@
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AN6" s="63">
-        <v>13.624539536088299</v>
-      </c>
-      <c r="AO6" s="63">
-        <v>-0.44284175578310597</v>
-      </c>
-      <c r="AP6" s="63">
-        <v>14.067381291871399</v>
-      </c>
-      <c r="AQ6" s="63">
-        <v>6.5908488901525999</v>
-      </c>
-      <c r="AR6" s="63">
-        <v>24.352429878149199</v>
-      </c>
-      <c r="AS6" s="63">
-        <v>47.733376584516698</v>
+      <c r="AN6" s="64">
+        <v>14.2561403318026</v>
+      </c>
+      <c r="AO6" s="64">
+        <v>-1.0745010524815199</v>
+      </c>
+      <c r="AP6" s="64">
+        <v>15.3306413842841</v>
+      </c>
+      <c r="AQ6" s="64">
+        <v>6.5908196396605696</v>
+      </c>
+      <c r="AR6" s="64">
+        <v>24.352520338578799</v>
+      </c>
+      <c r="AS6" s="64">
+        <v>47.733555896923399</v>
       </c>
       <c r="AT6" s="31"/>
       <c r="AU6" s="55"/>
       <c r="AV6" s="63">
         <f>AN6*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.543581702244511</v>
+        <v>14.53809184837456</v>
       </c>
       <c r="AW6" s="63">
         <f>AO6*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-1.4461946306102322</v>
+        <v>-1.4596824226653462</v>
       </c>
       <c r="AX6" s="63">
         <f t="shared" si="10"/>
-        <v>15.989776332854744</v>
+        <v>15.997774271039905</v>
       </c>
       <c r="AY6" s="63">
         <f t="shared" si="11"/>
-        <v>6.5486935358171392</v>
+        <v>6.5392047128546071</v>
       </c>
       <c r="AZ6" s="63">
         <f>AR6*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>23.378575482949014</v>
+        <v>23.378666730684603</v>
       </c>
       <c r="BA6" s="63">
         <f>AS6*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>45.803558238299111</v>
+        <v>45.803738821874127</v>
       </c>
       <c r="BB6" s="55"/>
       <c r="BC6" s="55"/>
@@ -3529,49 +3527,49 @@
         <f t="shared" si="9"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AN7" s="63">
-        <v>5.2915702148271899</v>
-      </c>
-      <c r="AO7" s="63">
-        <v>-12.0104270284902</v>
-      </c>
-      <c r="AP7" s="63">
-        <v>17.301997243317398</v>
-      </c>
-      <c r="AQ7" s="63">
-        <v>-3.3594284068315101</v>
-      </c>
-      <c r="AR7" s="63">
-        <v>17.7806714278295</v>
-      </c>
-      <c r="AS7" s="63">
-        <v>34.745911145374301</v>
+      <c r="AN7" s="64">
+        <v>5.9213907120378897</v>
+      </c>
+      <c r="AO7" s="64">
+        <v>-12.6401691821859</v>
+      </c>
+      <c r="AP7" s="64">
+        <v>18.561559894223802</v>
+      </c>
+      <c r="AQ7" s="64">
+        <v>-3.359389235074</v>
+      </c>
+      <c r="AR7" s="64">
+        <v>17.7807087203796</v>
+      </c>
+      <c r="AS7" s="64">
+        <v>34.745984622457499</v>
       </c>
       <c r="AT7" s="31"/>
       <c r="AU7" s="55"/>
       <c r="AV7" s="63">
         <f>AN7*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.0993923833261592</v>
+        <v>6.1071175625725571</v>
       </c>
       <c r="AW7" s="63">
         <f>AO7*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.29547383021416</v>
+        <v>-12.290850793433442</v>
       </c>
       <c r="AX7" s="63">
         <f t="shared" si="10"/>
-        <v>18.394866213540318</v>
+        <v>18.397968356006</v>
       </c>
       <c r="AY7" s="63">
         <f t="shared" si="11"/>
-        <v>-3.0980407234440004</v>
+        <v>-3.0918666154304426</v>
       </c>
       <c r="AZ7" s="63">
         <f>AR7*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>17.036872766905748</v>
+        <v>17.036860401960258</v>
       </c>
       <c r="BA7" s="63">
         <f>AS7*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>33.281151110253703</v>
+        <v>33.281126861317787</v>
       </c>
       <c r="BB7" s="55"/>
       <c r="BC7" s="55"/>
@@ -3682,49 +3680,49 @@
         <f t="shared" si="9"/>
         <v>B6_ref_2</v>
       </c>
-      <c r="AN8" s="65">
-        <v>-2.19025748922324</v>
-      </c>
-      <c r="AO8" s="65">
-        <v>0.42265552747914598</v>
-      </c>
-      <c r="AP8" s="65">
-        <v>-2.61291301670239</v>
-      </c>
-      <c r="AQ8" s="65">
-        <v>-0.88380098087204795</v>
-      </c>
-      <c r="AR8" s="65">
-        <v>21.5940737361231</v>
-      </c>
-      <c r="AS8" s="65">
-        <v>42.272615580605901</v>
+      <c r="AN8" s="64">
+        <v>-1.58436029364894</v>
+      </c>
+      <c r="AO8" s="64">
+        <v>-0.18319362963625699</v>
+      </c>
+      <c r="AP8" s="64">
+        <v>-1.4011666640126801</v>
+      </c>
+      <c r="AQ8" s="64">
+        <v>-0.883776961642601</v>
+      </c>
+      <c r="AR8" s="64">
+        <v>21.5940953146835</v>
+      </c>
+      <c r="AS8" s="64">
+        <v>42.272658245997299</v>
       </c>
       <c r="AT8" s="31"/>
       <c r="AU8" s="55"/>
       <c r="AV8" s="63">
         <f>AN8*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-1.4822951459120652</v>
+        <v>-1.4852873219744862</v>
       </c>
       <c r="AW8" s="63">
         <f>AO8*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-0.63444166305131089</v>
+        <v>-0.62497917347232335</v>
       </c>
       <c r="AX8" s="63">
         <f t="shared" si="10"/>
-        <v>-0.84785348286075435</v>
+        <v>-0.86030814850216286</v>
       </c>
       <c r="AY8" s="63">
         <f t="shared" si="11"/>
-        <v>-1.0583684044816881</v>
+        <v>-1.0551332477234048</v>
       </c>
       <c r="AZ8" s="63">
         <f>AR8*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>20.716780353085323</v>
+        <v>20.716783175561588</v>
       </c>
       <c r="BA8" s="63">
         <f>AS8*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>40.538337488311079</v>
+        <v>40.53834309901805</v>
       </c>
       <c r="BB8" s="55"/>
       <c r="BC8" s="55"/>
@@ -3835,47 +3833,47 @@
         <v>ATM_EQ_SW_2</v>
       </c>
       <c r="AN9" s="64">
-        <v>14.7204185921359</v>
+        <v>15.3570170153258</v>
       </c>
       <c r="AO9" s="64">
-        <v>-4.19292836172629</v>
+        <v>-4.8295569856192602</v>
       </c>
       <c r="AP9" s="64">
-        <v>18.913346953862199</v>
+        <v>20.1865740009451</v>
       </c>
       <c r="AQ9" s="64">
-        <v>5.2637451152047898</v>
+        <v>5.2637300148532997</v>
       </c>
       <c r="AR9" s="64">
-        <v>23.3079288441653</v>
+        <v>23.307962421212899</v>
       </c>
       <c r="AS9" s="64">
-        <v>45.6639367309728</v>
+        <v>45.664003224382199</v>
       </c>
       <c r="AT9" s="60"/>
       <c r="AV9" s="63">
         <f>AN9*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>15.654087437132182</v>
+        <v>15.6516781507889</v>
       </c>
       <c r="AW9" s="63">
         <f>AO9*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.9634141411132422</v>
+        <v>-4.9762663845558501</v>
       </c>
       <c r="AX9" s="63">
         <f t="shared" si="10"/>
-        <v>20.617501578245424</v>
+        <v>20.627944535344749</v>
       </c>
       <c r="AY9" s="63">
         <f t="shared" si="11"/>
-        <v>5.3453366480094697</v>
+        <v>5.3377058831165254</v>
       </c>
       <c r="AZ9" s="63">
         <f>AR9*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.370639008381321</v>
+        <v>22.370667050242545</v>
       </c>
       <c r="BA9" s="63">
         <f>AS9*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.808221388741295</v>
+        <v>43.808276814199289</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -3980,48 +3978,48 @@
         <f t="shared" si="9"/>
         <v>DI</v>
       </c>
-      <c r="AN10" s="63">
-        <v>12.5296145068617</v>
-      </c>
-      <c r="AO10" s="63">
-        <v>-31.800722793578199</v>
-      </c>
-      <c r="AP10" s="63">
-        <v>44.33033730044</v>
-      </c>
-      <c r="AQ10" s="63">
-        <v>-9.6355541433582399</v>
-      </c>
-      <c r="AR10" s="63">
-        <v>23.011923180081201</v>
-      </c>
-      <c r="AS10" s="63">
-        <v>45.077829352134998</v>
+      <c r="AN10" s="64">
+        <v>13.189529284932201</v>
+      </c>
+      <c r="AO10" s="64">
+        <v>-32.4605382585111</v>
+      </c>
+      <c r="AP10" s="64">
+        <v>45.650067543443299</v>
+      </c>
+      <c r="AQ10" s="64">
+        <v>-9.6355044867894595</v>
+      </c>
+      <c r="AR10" s="64">
+        <v>23.012027994814499</v>
+      </c>
+      <c r="AS10" s="64">
+        <v>45.078036862881099</v>
       </c>
       <c r="AT10" s="60"/>
       <c r="AV10" s="63">
         <f>AN10*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>13.434042727557351</v>
+        <v>13.459166779312852</v>
       </c>
       <c r="AW10" s="63">
         <f>AO10*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-30.856862325423542</v>
+        <v>-30.852489622156323</v>
       </c>
       <c r="AX10" s="63">
         <f t="shared" si="10"/>
-        <v>44.290905052980889</v>
+        <v>44.311656401469179</v>
       </c>
       <c r="AY10" s="63">
         <f t="shared" si="11"/>
-        <v>-8.7114097989330954</v>
+        <v>-8.6966614214217355</v>
       </c>
       <c r="AZ10" s="63">
         <f>AR10*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.084995532882765</v>
+        <v>22.085089963245178</v>
       </c>
       <c r="BA10" s="63">
         <f>AS10*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.243101485019487</v>
+        <v>43.243288240743389</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -4130,47 +4128,47 @@
         <v>ATM_EQ_SW_1</v>
       </c>
       <c r="AN11" s="64">
-        <v>15.8309907320658</v>
+        <v>16.467420459830699</v>
       </c>
       <c r="AO11" s="64">
-        <v>-3.9731856475206002</v>
+        <v>-4.6096001622838401</v>
       </c>
       <c r="AP11" s="64">
-        <v>19.804176379586401</v>
+        <v>21.0770206221145</v>
       </c>
       <c r="AQ11" s="64">
-        <v>5.9289025422726001</v>
+        <v>5.9289101487734399</v>
       </c>
       <c r="AR11" s="64">
-        <v>23.171307203657499</v>
+        <v>23.171290901832201</v>
       </c>
       <c r="AS11" s="64">
-        <v>45.393398658799804</v>
+        <v>45.393366379958998</v>
       </c>
       <c r="AT11" s="55"/>
       <c r="AV11" s="63">
         <f>AN11*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>16.779482364239044</v>
+        <v>16.774901200619524</v>
       </c>
       <c r="AW11" s="63">
         <f>AO11*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.7573166711320791</v>
+        <v>-4.7702783377670546</v>
       </c>
       <c r="AX11" s="63">
         <f t="shared" si="10"/>
-        <v>21.536799035371125</v>
+        <v>21.545179538386577</v>
       </c>
       <c r="AY11" s="63">
         <f t="shared" si="11"/>
-        <v>6.0110828465534825</v>
+        <v>6.0023114314262349</v>
       </c>
       <c r="AZ11" s="63">
         <f>AR11*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.238800043935441</v>
+        <v>22.238778865230575</v>
       </c>
       <c r="BA11" s="63">
         <f>AS11*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.547370809445319</v>
+        <v>43.547328857624507</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -4279,47 +4277,47 @@
         <v>S2_ref_1</v>
       </c>
       <c r="AN12" s="64">
-        <v>5.6303612459263199</v>
+        <v>6.26118963247845</v>
       </c>
       <c r="AO12" s="64">
-        <v>-12.7369578551756</v>
+        <v>-13.3677308440912</v>
       </c>
       <c r="AP12" s="64">
-        <v>18.367319101101899</v>
+        <v>19.6289204765697</v>
       </c>
       <c r="AQ12" s="64">
-        <v>-3.55329830462462</v>
+        <v>-3.5532706058064001</v>
       </c>
       <c r="AR12" s="64">
-        <v>17.047650523571001</v>
+        <v>17.047677096118001</v>
       </c>
       <c r="AS12" s="64">
-        <v>33.302136344730599</v>
+        <v>33.3021886649449</v>
       </c>
       <c r="AT12" s="55"/>
       <c r="AV12" s="63">
         <f>AN12*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.4427052524679418</v>
+        <v>6.4508394608025981</v>
       </c>
       <c r="AW12" s="63">
         <f>AO12*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-12.976889665931125</v>
+        <v>-12.972207267770873</v>
       </c>
       <c r="AX12" s="63">
         <f t="shared" si="10"/>
-        <v>19.419594918399067</v>
+        <v>19.423046728573471</v>
       </c>
       <c r="AY12" s="63">
         <f t="shared" si="11"/>
-        <v>-3.2670922067315917</v>
+        <v>-3.2606839034841375</v>
       </c>
       <c r="AZ12" s="63">
         <f>AR12*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.329512523130131</v>
+        <v>16.329483979145031</v>
       </c>
       <c r="BA12" s="63">
         <f>AS12*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>31.889075347697002</v>
+        <v>31.889019272911604</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -4428,47 +4426,47 @@
         <v>B6_ref_1</v>
       </c>
       <c r="AN13" s="64">
-        <v>-0.95197073077611605</v>
+        <v>-0.344641487913244</v>
       </c>
       <c r="AO13" s="64">
-        <v>1.2195527286622301</v>
+        <v>0.61220577119724895</v>
       </c>
       <c r="AP13" s="64">
-        <v>-2.1715234594383501</v>
+        <v>-0.95684725911049295</v>
       </c>
       <c r="AQ13" s="64">
-        <v>0.13379099894305799</v>
+        <v>0.133782141642002</v>
       </c>
       <c r="AR13" s="64">
-        <v>22.459159738802899</v>
+        <v>22.4590534325555</v>
       </c>
       <c r="AS13" s="64">
-        <v>43.983753381824997</v>
+        <v>43.983543024889798</v>
       </c>
       <c r="AT13" s="55"/>
       <c r="AV13" s="63">
         <f>AN13*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>-0.22748099547969858</v>
+        <v>-0.23125596535193599</v>
       </c>
       <c r="AW13" s="63">
         <f>AO13*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>0.11297104454439499</v>
+        <v>0.11990687511741482</v>
       </c>
       <c r="AX13" s="63">
         <f t="shared" si="10"/>
-        <v>-0.34045204002409357</v>
+        <v>-0.35116284046935081</v>
       </c>
       <c r="AY13" s="63">
         <f t="shared" si="11"/>
-        <v>-5.7254975467651792E-2</v>
+        <v>-5.5674545117260582E-2</v>
       </c>
       <c r="AZ13" s="63">
         <f>AR13*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.551582528831542</v>
+        <v>21.55146882765964</v>
       </c>
       <c r="BA13" s="63">
         <f>AS13*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.188202452299684</v>
+        <v>42.187977641345064</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -4576,47 +4574,47 @@
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AN14" s="66">
-        <v>13.1212595032093</v>
-      </c>
-      <c r="AO14" s="66">
-        <v>-3.0245950750757999</v>
-      </c>
-      <c r="AP14" s="66">
-        <v>16.1458545782851</v>
-      </c>
-      <c r="AQ14" s="66">
-        <v>5.0483322140667397</v>
-      </c>
-      <c r="AR14" s="66">
-        <v>23.1234883652725</v>
-      </c>
-      <c r="AS14" s="66">
-        <v>45.298715835012402</v>
+      <c r="AN14" s="64">
+        <v>13.754238570479799</v>
+      </c>
+      <c r="AO14" s="64">
+        <v>-3.6574638553349401</v>
+      </c>
+      <c r="AP14" s="64">
+        <v>17.411702425814799</v>
+      </c>
+      <c r="AQ14" s="64">
+        <v>5.0483873575724498</v>
+      </c>
+      <c r="AR14" s="64">
+        <v>23.123577296198999</v>
+      </c>
+      <c r="AS14" s="64">
+        <v>45.298891917228502</v>
       </c>
       <c r="AV14" s="63">
         <f>AN14*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>14.033584399456103</v>
+        <v>14.030395632320655</v>
       </c>
       <c r="AW14" s="63">
         <f>AO14*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-3.8676302133328111</v>
+        <v>-3.8786092584859029</v>
       </c>
       <c r="AX14" s="63">
         <f t="shared" si="10"/>
-        <v>17.901214612788912</v>
+        <v>17.909004890806557</v>
       </c>
       <c r="AY14" s="63">
         <f t="shared" si="11"/>
-        <v>5.082977093061646</v>
+        <v>5.0758931869173765</v>
       </c>
       <c r="AZ14" s="63">
         <f>AR14*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.192655186427871</v>
+        <v>22.192735176861156</v>
       </c>
       <c r="BA14" s="63">
         <f>AS14*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>43.456078411166786</v>
+        <v>43.456236611664558</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -4724,47 +4722,47 @@
         <f t="shared" si="9"/>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="AN15" s="65">
-        <v>15.3661695705781</v>
-      </c>
-      <c r="AO15" s="65">
-        <v>-3.7328175302236501</v>
-      </c>
-      <c r="AP15" s="65">
-        <v>19.0989871008017</v>
-      </c>
-      <c r="AQ15" s="65">
-        <v>5.8166760201772103</v>
-      </c>
-      <c r="AR15" s="65">
-        <v>23.703556787671602</v>
-      </c>
-      <c r="AS15" s="65">
-        <v>46.447550009369102</v>
+      <c r="AN15" s="64">
+        <v>16.001773374926898</v>
+      </c>
+      <c r="AO15" s="64">
+        <v>-4.3685511398915402</v>
+      </c>
+      <c r="AP15" s="64">
+        <v>20.3703245148184</v>
+      </c>
+      <c r="AQ15" s="64">
+        <v>5.8166111175176898</v>
+      </c>
+      <c r="AR15" s="64">
+        <v>23.703515560060598</v>
+      </c>
+      <c r="AS15" s="64">
+        <v>46.447468335766501</v>
       </c>
       <c r="AV15" s="63">
         <f>AN15*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>16.308457242734377</v>
+        <v>16.303878221144174</v>
       </c>
       <c r="AW15" s="63">
         <f>AO15*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-4.5318745625365429</v>
+        <v>-4.5445375921516273</v>
       </c>
       <c r="AX15" s="63">
         <f t="shared" si="10"/>
-        <v>20.840331805270921</v>
+        <v>20.848415813295802</v>
       </c>
       <c r="AY15" s="63">
         <f t="shared" si="11"/>
-        <v>5.8882913400989167</v>
+        <v>5.8796703144962734</v>
       </c>
       <c r="AZ15" s="63">
         <f>AR15*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>22.752417313661923</v>
+        <v>22.752376317797374</v>
       </c>
       <c r="BA15" s="63">
         <f>AS15*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>44.563774852887327</v>
+        <v>44.563693617477092</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -4872,47 +4870,47 @@
         <f t="shared" si="9"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AN16" s="65">
-        <v>5.7119699629923302</v>
-      </c>
-      <c r="AO16" s="65">
-        <v>-13.036924129201299</v>
-      </c>
-      <c r="AP16" s="65">
-        <v>18.748894092193702</v>
-      </c>
-      <c r="AQ16" s="65">
-        <v>-3.6624770831045002</v>
-      </c>
-      <c r="AR16" s="65">
-        <v>17.560394819866399</v>
-      </c>
-      <c r="AS16" s="65">
-        <v>34.311946735499298</v>
+      <c r="AN16" s="64">
+        <v>6.34330852432696</v>
+      </c>
+      <c r="AO16" s="64">
+        <v>-13.6683362136055</v>
+      </c>
+      <c r="AP16" s="64">
+        <v>20.0116447379324</v>
+      </c>
+      <c r="AQ16" s="64">
+        <v>-3.66251384463928</v>
+      </c>
+      <c r="AR16" s="64">
+        <v>17.560418650252199</v>
+      </c>
+      <c r="AS16" s="64">
+        <v>34.311993678702798</v>
       </c>
       <c r="AV16" s="63">
         <f>AN16*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>6.5254031996716098</v>
+        <v>6.5339064150769719</v>
       </c>
       <c r="AW16" s="63">
         <f>AO16*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-13.258229096818942</v>
+        <v>-13.253722121374885</v>
       </c>
       <c r="AX16" s="63">
         <f t="shared" si="10"/>
-        <v>19.783632296490552</v>
+        <v>19.787628536451855</v>
       </c>
       <c r="AY16" s="63">
         <f t="shared" si="11"/>
-        <v>-3.3664129485736662</v>
+        <v>-3.3599078531489566</v>
       </c>
       <c r="AZ16" s="63">
         <f>AR16*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>16.824307321361651</v>
+        <v>16.824280212196406</v>
       </c>
       <c r="BA16" s="63">
         <f>AS16*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>32.862726203176869</v>
+        <v>32.862672935777404</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -5017,47 +5015,47 @@
         <f t="shared" si="9"/>
         <v>DI</v>
       </c>
-      <c r="AN17" s="66">
-        <v>11.943231846484601</v>
-      </c>
-      <c r="AO17" s="66">
-        <v>-25.7762967852962</v>
-      </c>
-      <c r="AP17" s="66">
-        <v>37.719528631780797</v>
-      </c>
-      <c r="AQ17" s="66">
-        <v>-6.9165324694058299</v>
-      </c>
-      <c r="AR17" s="66">
-        <v>22.706668195684699</v>
-      </c>
-      <c r="AS17" s="66">
-        <v>44.473574396293898</v>
+      <c r="AN17" s="64">
+        <v>12.5964587639961</v>
+      </c>
+      <c r="AO17" s="64">
+        <v>-26.429540998654598</v>
+      </c>
+      <c r="AP17" s="64">
+        <v>39.025999762650798</v>
+      </c>
+      <c r="AQ17" s="64">
+        <v>-6.9165411173292499</v>
+      </c>
+      <c r="AR17" s="64">
+        <v>22.706990474774301</v>
+      </c>
+      <c r="AS17" s="64">
+        <v>44.474212261421599</v>
       </c>
       <c r="AV17" s="63">
         <f>AN17*scale_decompression!B$14+scale_decompression!B$15</f>
-        <v>12.839833627936441</v>
+        <v>12.859249260516336</v>
       </c>
       <c r="AW17" s="63">
         <f>AO17*scale_decompression!C$14+scale_decompression!C$15</f>
-        <v>-25.206531833767624</v>
+        <v>-25.204502317611691</v>
       </c>
       <c r="AX17" s="63">
         <f t="shared" si="10"/>
-        <v>38.046365461704063</v>
+        <v>38.063751578128027</v>
       </c>
       <c r="AY17" s="63">
         <f t="shared" si="11"/>
-        <v>-6.1833491029155914</v>
+        <v>-6.1726265285476778</v>
       </c>
       <c r="AZ17" s="63">
         <f>AR17*scale_decompression!F$14+scale_decompression!F$15</f>
-        <v>21.790426525475187</v>
+        <v>21.790728379639805</v>
       </c>
       <c r="BA17" s="63">
         <f>AS17*scale_decompression!G$14+scale_decompression!G$15</f>
-        <v>42.660483837131366</v>
+        <v>42.66108075818034</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -6478,8 +6476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6488,16 +6486,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
@@ -6628,69 +6626,87 @@
       <c r="A9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="67">
-        <v>14.416870498714482</v>
-      </c>
-      <c r="C9" s="67">
-        <v>-2.9218372565587871</v>
-      </c>
-      <c r="D9" s="67">
-        <v>17.338707755273269</v>
-      </c>
-      <c r="E9" s="67">
-        <v>5.7475166210778479</v>
-      </c>
-      <c r="F9" s="67">
-        <v>23.653181412339649</v>
-      </c>
-      <c r="G9" s="67">
-        <v>46.347982315905767</v>
+      <c r="B9" s="65">
+        <f>AVERAGE(size_correction!AN3,size_correction!AN6,size_correction!AN9,size_correction!AN11,size_correction!AN14,size_correction!AN15)</f>
+        <v>15.051210008933149</v>
+      </c>
+      <c r="C9" s="65">
+        <f>AVERAGE(size_correction!AO3,size_correction!AO6,size_correction!AO9,size_correction!AO11,size_correction!AO14,size_correction!AO15)</f>
+        <v>-3.5561697630345002</v>
+      </c>
+      <c r="D9" s="65">
+        <f>AVERAGE(size_correction!AP3,size_correction!AP6,size_correction!AP9,size_correction!AP11,size_correction!AP14,size_correction!AP15)</f>
+        <v>18.607379771967647</v>
+      </c>
+      <c r="E9" s="65">
+        <f>AVERAGE(size_correction!AQ3,size_correction!AQ6,size_correction!AQ9,size_correction!AQ11,size_correction!AQ14,size_correction!AQ15)</f>
+        <v>5.7475201229493464</v>
+      </c>
+      <c r="F9" s="65">
+        <f>AVERAGE(size_correction!AR3,size_correction!AR6,size_correction!AR9,size_correction!AR11,size_correction!AR14,size_correction!AR15)</f>
+        <v>23.653205185354519</v>
+      </c>
+      <c r="G9" s="65">
+        <f>AVERAGE(size_correction!AS3,size_correction!AS6,size_correction!AS9,size_correction!AS11,size_correction!AS14,size_correction!AS15)</f>
+        <v>46.348029409836023</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="67">
-        <v>-1.5626976748263186</v>
-      </c>
-      <c r="C10" s="67">
-        <v>1.2897969450214886</v>
-      </c>
-      <c r="D10" s="67">
-        <v>-2.8524946198478069</v>
-      </c>
-      <c r="E10" s="67">
-        <v>-0.13645036490241502</v>
-      </c>
-      <c r="F10" s="67">
-        <v>22.218968675425501</v>
-      </c>
-      <c r="G10" s="67">
-        <v>43.508700243025373</v>
+      <c r="B10" s="65">
+        <f>AVERAGE(size_correction!AN5,size_correction!AN8,size_correction!AN13)</f>
+        <v>-0.9565314303671858</v>
+      </c>
+      <c r="C10" s="65">
+        <f>AVERAGE(size_correction!AO5,size_correction!AO8,size_correction!AO13)</f>
+        <v>0.68363131823097723</v>
+      </c>
+      <c r="D10" s="65">
+        <f>AVERAGE(size_correction!AP5,size_correction!AP8,size_correction!AP13)</f>
+        <v>-1.6401627485981611</v>
+      </c>
+      <c r="E10" s="65">
+        <f>AVERAGE(size_correction!AQ5,size_correction!AQ8,size_correction!AQ13)</f>
+        <v>-0.13645005606810501</v>
+      </c>
+      <c r="F10" s="65">
+        <f>AVERAGE(size_correction!AR5,size_correction!AR8,size_correction!AR13)</f>
+        <v>22.21895213830253</v>
+      </c>
+      <c r="G10" s="65">
+        <f>AVERAGE(size_correction!AS5,size_correction!AS8,size_correction!AS13)</f>
+        <v>43.508667511434091</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="67">
-        <v>5.5348370076648328</v>
-      </c>
-      <c r="C11" s="67">
-        <v>-12.469189824435823</v>
-      </c>
-      <c r="D11" s="67">
-        <v>18.004026832100656</v>
-      </c>
-      <c r="E11" s="67">
-        <v>-3.467176408385495</v>
-      </c>
-      <c r="F11" s="67">
-        <v>17.517499686386948</v>
-      </c>
-      <c r="G11" s="67">
-        <v>34.227522111016825</v>
+      <c r="B11" s="65">
+        <f>AVERAGE(size_correction!AN4,size_correction!AN7,size_correction!AN12,size_correction!AN16)</f>
+        <v>6.1653607336575833</v>
+      </c>
+      <c r="C11" s="65">
+        <f>AVERAGE(size_correction!AO4,size_correction!AO7,size_correction!AO12,size_correction!AO16)</f>
+        <v>-13.0996991065127</v>
+      </c>
+      <c r="D11" s="65">
+        <f>AVERAGE(size_correction!AP4,size_correction!AP7,size_correction!AP12,size_correction!AP16)</f>
+        <v>19.265059840170277</v>
+      </c>
+      <c r="E11" s="65">
+        <f>AVERAGE(size_correction!AQ4,size_correction!AQ7,size_correction!AQ12,size_correction!AQ16)</f>
+        <v>-3.46716918642757</v>
+      </c>
+      <c r="F11" s="65">
+        <f>AVERAGE(size_correction!AR4,size_correction!AR7,size_correction!AR12,size_correction!AR16)</f>
+        <v>17.517559897319124</v>
+      </c>
+      <c r="G11" s="65">
+        <f>AVERAGE(size_correction!AS4,size_correction!AS7,size_correction!AS12,size_correction!AS16)</f>
+        <v>34.227640725793755</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6718,21 +6734,21 @@
       </c>
       <c r="B14" s="48">
         <f>SLOPE(B4:B6,B9:B11)</f>
-        <v>1.0133469827344104</v>
+        <v>1.0115449978016269</v>
       </c>
       <c r="C14" s="48">
         <f>SLOPE(C4:C6,C9:C11)</f>
-        <v>0.9379035419952374</v>
+        <v>0.93649309744156917</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48">
         <f>SLOPE(F4:F6,F9:F11)</f>
-        <v>0.96499327599826168</v>
+        <v>0.96500123514832581</v>
       </c>
       <c r="G14" s="48">
         <f t="shared" ref="G14" si="1">SLOPE(G4:G6,G9:G11)</f>
-        <v>0.96419175756222808</v>
+        <v>0.96419967181826449</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6741,21 +6757,21 @@
       </c>
       <c r="B15" s="46">
         <f>INTERCEPT(B4:B6,B9:B11)</f>
-        <v>0.73719567220375026</v>
+        <v>0.11736440778161583</v>
       </c>
       <c r="C15" s="46">
         <f>INTERCEPT(C4:C6,C9:C11)</f>
-        <v>-1.0308517793178673</v>
+        <v>-0.45341960382270141</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46">
         <f>INTERCEPT(F4:F6,F9:F11)</f>
-        <v>-0.12135560368412968</v>
+        <v>-0.12154547501866375</v>
       </c>
       <c r="G15" s="46">
         <f t="shared" ref="G15" si="2">INTERCEPT(G4:G6,G9:G11)</f>
-        <v>-0.22057002510575074</v>
+        <v>-0.22094010865819769</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6773,27 +6789,27 @@
       </c>
       <c r="B17" s="46">
         <f t="shared" ref="B17:C19" si="3">B$15+B$14*B9</f>
-        <v>15.346487892548804</v>
+        <v>15.342340603179721</v>
       </c>
       <c r="C17" s="46">
         <f t="shared" si="3"/>
-        <v>-3.771253291378001</v>
+        <v>-3.7837480402349315</v>
       </c>
       <c r="D17" s="46">
         <f>B17-C17</f>
-        <v>19.117741183926807</v>
+        <v>19.126088643414654</v>
       </c>
       <c r="E17" s="46">
         <f>AVERAGE(B17:C17)</f>
-        <v>5.7876173005854019</v>
+        <v>5.7792962814723952</v>
       </c>
       <c r="F17" s="46">
-        <f>F$15+F$14*F9</f>
-        <v>22.703805415190697</v>
+        <f t="shared" ref="F17:G19" si="4">F$15+F$14*F9</f>
+        <v>22.703826744065232</v>
       </c>
       <c r="G17" s="46">
-        <f>G$15+G$14*G9</f>
-        <v>44.467772503530497</v>
+        <f t="shared" si="4"/>
+        <v>44.467814637728964</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6802,27 +6818,27 @@
       </c>
       <c r="B18" s="46">
         <f t="shared" si="3"/>
-        <v>-0.84635930150757854</v>
+        <v>-0.85021017584634617</v>
       </c>
       <c r="C18" s="46">
         <f t="shared" si="3"/>
-        <v>0.17885334387242335</v>
+        <v>0.18679640689548949</v>
       </c>
       <c r="D18" s="46">
         <f>B18-C18</f>
-        <v>-1.0252126453800019</v>
+        <v>-1.0370065827418355</v>
       </c>
       <c r="E18" s="46">
-        <f t="shared" ref="E18:E19" si="4">AVERAGE(B18:C18)</f>
-        <v>-0.33375297881757759</v>
+        <f t="shared" ref="E18:E19" si="5">AVERAGE(B18:C18)</f>
+        <v>-0.33170688447542834</v>
       </c>
       <c r="F18" s="46">
-        <f>F$15+F$14*F10</f>
-        <v>21.31979976771748</v>
+        <f t="shared" si="4"/>
+        <v>21.319770782144811</v>
       </c>
       <c r="G18" s="46">
-        <f>G$15+G$14*G10</f>
-        <v>41.730160131465027</v>
+        <f t="shared" si="4"/>
+        <v>41.730102827116539</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6831,27 +6847,27 @@
       </c>
       <c r="B19" s="46">
         <f t="shared" si="3"/>
-        <v>6.3459060538476608</v>
+        <v>6.3539042175555123</v>
       </c>
       <c r="C19" s="46">
         <f t="shared" si="3"/>
-        <v>-12.725749081467198</v>
+        <v>-12.721197395633336</v>
       </c>
       <c r="D19" s="46">
         <f>B19-C19</f>
-        <v>19.07165513531486</v>
+        <v>19.075101613188849</v>
       </c>
       <c r="E19" s="46">
+        <f t="shared" si="5"/>
+        <v>-3.1836465890389118</v>
+      </c>
+      <c r="F19" s="46">
         <f t="shared" si="4"/>
-        <v>-3.1899215138097685</v>
-      </c>
-      <c r="F19" s="46">
-        <f>F$15+F$14*F11</f>
-        <v>16.782913805980932</v>
+        <v>16.78292146267907</v>
       </c>
       <c r="G19" s="46">
-        <f>G$15+G$14*G11</f>
-        <v>32.781324676115581</v>
+        <f t="shared" si="4"/>
+        <v>32.781339846265602</v>
       </c>
     </row>
   </sheetData>
